--- a/EFI/CODE/output/FMP/AllStocksFactorRankingTable_Digital_20200930.xlsx
+++ b/EFI/CODE/output/FMP/AllStocksFactorRankingTable_Digital_20200930.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="659">
   <si>
     <t>sedol</t>
   </si>
@@ -2010,7 +2010,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2022,16 +2022,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,186 +2110,186 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="5" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2464,7 +2468,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2643,7 +2647,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2822,7 +2826,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3001,7 +3005,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3180,7 +3184,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3359,7 +3363,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3538,7 +3542,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3717,7 +3721,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3896,7 +3900,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -4075,7 +4079,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -4254,7 +4258,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -4433,7 +4437,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -4612,7 +4616,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -4791,7 +4795,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -4970,7 +4974,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -5149,7 +5153,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -5328,7 +5332,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -5507,7 +5511,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -5674,7 +5678,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -5853,7 +5857,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -6020,7 +6024,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -6199,7 +6203,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -6378,7 +6382,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -6545,7 +6549,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -6724,7 +6728,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -6897,7 +6901,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -7076,7 +7080,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -7255,7 +7259,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -7434,7 +7438,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -7613,7 +7617,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -7792,7 +7796,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -7965,7 +7969,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -8138,7 +8142,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -8317,7 +8321,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -8484,7 +8488,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -8663,7 +8667,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -8842,7 +8846,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -9021,7 +9025,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -9182,7 +9186,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -9361,7 +9365,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -9528,7 +9532,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -9707,7 +9711,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -9877,7 +9881,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -10056,7 +10060,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -10235,7 +10239,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -10414,7 +10418,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -10593,7 +10597,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -10772,7 +10776,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -10951,7 +10955,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -11130,7 +11134,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -11309,7 +11313,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -11455,7 +11459,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -11634,7 +11638,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -11801,7 +11805,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -11980,7 +11984,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -12159,7 +12163,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -12338,7 +12342,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -12517,7 +12521,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -12696,7 +12700,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -12875,7 +12879,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -13054,7 +13058,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -13224,7 +13228,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -13403,7 +13407,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -13582,7 +13586,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -13761,7 +13765,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -13940,7 +13944,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -14119,7 +14123,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -14298,7 +14302,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -14468,7 +14472,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -14635,7 +14639,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -14814,7 +14818,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -14993,7 +14997,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -15172,7 +15176,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -15351,7 +15355,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -15530,7 +15534,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -15709,7 +15713,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -15888,7 +15892,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -16064,7 +16068,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -16231,7 +16235,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -16410,7 +16414,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -16589,7 +16593,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -16768,7 +16772,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -16947,7 +16951,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -17126,7 +17130,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -17287,7 +17291,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -17466,7 +17470,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -17645,7 +17649,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -17824,7 +17828,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -17991,7 +17995,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -18170,7 +18174,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -18343,7 +18347,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -18522,7 +18526,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -18701,7 +18705,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -18742,7 +18746,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -18921,7 +18925,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -19094,7 +19098,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -19267,7 +19271,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -19431,7 +19435,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -19610,7 +19614,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -19777,7 +19781,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -19956,7 +19960,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -20129,7 +20133,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -20308,7 +20312,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -20487,7 +20491,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -20666,7 +20670,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -20845,7 +20849,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -20997,7 +21001,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -21176,7 +21180,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -21355,7 +21359,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -21534,7 +21538,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -21713,7 +21717,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -21892,7 +21896,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -22071,7 +22075,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -22250,7 +22254,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -22429,7 +22433,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -22596,7 +22600,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -22616,7 +22620,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -22795,7 +22799,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -22974,7 +22978,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -23153,7 +23157,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -23332,7 +23336,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -23511,7 +23515,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -23678,7 +23682,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -23848,7 +23852,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -24024,7 +24028,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -24203,7 +24207,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -24355,7 +24359,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -24522,7 +24526,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -24701,7 +24705,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -24880,7 +24884,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -25059,7 +25063,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -25238,7 +25242,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -25417,7 +25421,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -25596,7 +25600,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -25775,7 +25779,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -25954,7 +25958,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -26133,7 +26137,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -26312,7 +26316,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -26491,7 +26495,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -26670,7 +26674,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -26843,7 +26847,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -27022,7 +27026,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -27201,7 +27205,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -27380,7 +27384,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -27553,7 +27557,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -27732,7 +27736,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -27875,7 +27879,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -28042,7 +28046,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -28221,7 +28225,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -28400,7 +28404,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -28579,7 +28583,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -28758,7 +28762,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -28925,7 +28929,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -29092,7 +29096,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -29271,7 +29275,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -29450,7 +29454,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -29629,7 +29633,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -29796,7 +29800,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -29975,7 +29979,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -30154,7 +30158,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -30300,7 +30304,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -30479,7 +30483,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -30649,7 +30653,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -30828,7 +30832,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -31007,7 +31011,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -31186,7 +31190,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -31359,7 +31363,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -31538,7 +31542,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -31717,7 +31721,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -31896,7 +31900,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -32036,7 +32040,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -32209,7 +32213,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -32388,7 +32392,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -32567,7 +32571,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -32746,7 +32750,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -32925,7 +32929,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -33104,7 +33108,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -33283,7 +33287,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -33438,7 +33442,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -33617,7 +33621,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -33796,7 +33800,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -33975,7 +33979,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -34142,7 +34146,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -34321,7 +34325,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -34500,7 +34504,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -34679,7 +34683,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -34858,7 +34862,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -34998,7 +35002,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -35177,7 +35181,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -35356,7 +35360,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -35532,7 +35536,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -35711,7 +35715,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -35890,7 +35894,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -36069,7 +36073,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -36248,7 +36252,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -36427,7 +36431,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -36606,7 +36610,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -36752,7 +36756,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -36904,7 +36908,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -37083,7 +37087,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -37262,7 +37266,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -37441,7 +37445,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -37620,7 +37624,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -37799,7 +37803,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -37978,7 +37982,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -38157,7 +38161,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -38336,7 +38340,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -38512,7 +38516,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -38691,7 +38695,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -38870,7 +38874,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -39049,7 +39053,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -39204,7 +39208,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -39383,7 +39387,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -39562,7 +39566,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -39741,7 +39745,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -39920,7 +39924,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -40099,7 +40103,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -40278,7 +40282,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -40457,7 +40461,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -40636,7 +40640,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -40815,7 +40819,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -40994,7 +40998,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -41173,7 +41177,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -41352,7 +41356,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -41531,7 +41535,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -41710,7 +41714,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -41889,7 +41893,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -42068,7 +42072,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -42247,7 +42251,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -42426,7 +42430,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -42605,7 +42609,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -42784,7 +42788,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="5" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -42963,7 +42967,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -43142,7 +43146,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -43321,7 +43325,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -43500,7 +43504,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -43667,7 +43671,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -43843,7 +43847,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -44022,7 +44026,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -44201,7 +44205,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -44365,7 +44369,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -44544,7 +44548,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -44723,7 +44727,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -44902,7 +44906,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -45060,7 +45064,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -45239,7 +45243,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -45400,7 +45404,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="5" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -45579,7 +45583,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -45758,7 +45762,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -45937,7 +45941,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -46104,7 +46108,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -46280,7 +46284,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -46447,7 +46451,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -46626,7 +46630,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -46805,7 +46809,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -46984,7 +46988,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -47163,7 +47167,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -47342,7 +47346,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -47497,7 +47501,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="5" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -47676,7 +47680,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -47834,7 +47838,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -48013,7 +48017,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -48192,7 +48196,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -48371,7 +48375,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -48550,7 +48554,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -48711,7 +48715,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="5" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -48890,7 +48894,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -49063,7 +49067,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="5" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -49242,7 +49246,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -49421,7 +49425,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -49600,7 +49604,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -49779,7 +49783,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -49958,7 +49962,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -50137,7 +50141,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -50316,7 +50320,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="5" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -50495,7 +50499,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -50674,7 +50678,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -50835,7 +50839,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -51014,7 +51018,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -51193,7 +51197,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -51372,7 +51376,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -51551,7 +51555,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -51730,7 +51734,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -51876,7 +51880,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -52055,7 +52059,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -52213,7 +52217,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="5" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -52392,7 +52396,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="5" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -52559,7 +52563,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -52711,7 +52715,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -52890,7 +52894,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="5" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -53069,7 +53073,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -53248,7 +53252,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -53427,7 +53431,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="5" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -53594,7 +53598,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -53773,7 +53777,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -53952,7 +53956,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -54131,7 +54135,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -54277,7 +54281,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="5" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -54456,7 +54460,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -54635,7 +54639,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -54814,7 +54818,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -54993,7 +54997,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="5" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -55172,7 +55176,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -55351,7 +55355,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="5" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -55521,7 +55525,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -55700,7 +55704,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="5" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -55879,7 +55883,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -56058,7 +56062,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="5" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -56237,7 +56241,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -56416,7 +56420,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="5" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -56595,7 +56599,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -56774,7 +56778,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="5" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -56953,7 +56957,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -57132,7 +57136,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -57308,7 +57312,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -57487,7 +57491,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -57666,7 +57670,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -57845,7 +57849,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="5" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -58024,7 +58028,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="5" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -58203,7 +58207,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="5" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -58382,7 +58386,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -58561,7 +58565,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="5" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -58740,7 +58744,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="5" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -58919,7 +58923,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -59098,7 +59102,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -59277,7 +59281,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -59456,7 +59460,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="5" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -59635,7 +59639,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -59814,7 +59818,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -59993,7 +59997,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -60172,7 +60176,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="5" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -60351,7 +60355,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="5" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -60530,7 +60534,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -60685,7 +60689,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="5" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -60864,7 +60868,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="5" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -61043,7 +61047,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="5" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -61222,7 +61226,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="5" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -61401,7 +61405,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="5" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -61580,7 +61584,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -61759,7 +61763,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="5" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -61938,7 +61942,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -62111,7 +62115,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -62290,7 +62294,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="5" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -62454,7 +62458,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="5" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -62627,7 +62631,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="5" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -62794,7 +62798,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -62973,7 +62977,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="5" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -63119,7 +63123,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -63298,7 +63302,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -63474,7 +63478,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="5" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -63641,7 +63645,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="5" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -63817,7 +63821,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="5" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -63996,7 +64000,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -64175,7 +64179,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="5" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -64354,7 +64358,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -64533,7 +64537,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="5" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -64712,7 +64716,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="5" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -64891,7 +64895,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -65070,7 +65074,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -65249,7 +65253,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -65392,7 +65396,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="5" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -65571,7 +65575,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="5" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -65750,7 +65754,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -65929,7 +65933,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="3" t="s">
+      <c r="A366" s="5" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -66108,7 +66112,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="5" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -66287,7 +66291,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="5" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -66466,7 +66470,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -66645,7 +66649,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="5" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -66824,7 +66828,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -67003,7 +67007,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="5" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -67182,7 +67186,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -67337,7 +67341,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="5" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -67516,7 +67520,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="5" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -67695,7 +67699,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="5" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -67874,7 +67878,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="5" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -68053,7 +68057,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -68232,7 +68236,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -68411,7 +68415,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="5" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -68590,7 +68594,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -68769,7 +68773,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -68948,7 +68952,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -69127,7 +69131,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -69306,7 +69310,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -69473,7 +69477,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="5" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -69652,7 +69656,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -69831,7 +69835,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3" t="s">
+      <c r="A388" s="5" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -69992,7 +69996,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -70171,7 +70175,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="5" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -70350,7 +70354,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -70529,7 +70533,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3" t="s">
+      <c r="A392" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -70708,7 +70712,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -70848,7 +70852,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -71015,7 +71019,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -71194,7 +71198,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -71373,7 +71377,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -71537,7 +71541,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="5" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -71701,7 +71705,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -71874,7 +71878,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -72053,7 +72057,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="5" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -72214,7 +72218,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -72393,7 +72397,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -72539,7 +72543,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="3" t="s">
+      <c r="A404" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -72718,7 +72722,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -72897,7 +72901,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="5" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -73076,7 +73080,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -73255,7 +73259,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="3" t="s">
+      <c r="A408" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -73434,7 +73438,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -73601,7 +73605,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="5" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -73765,7 +73769,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -73902,7 +73906,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -74081,7 +74085,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -74260,7 +74264,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -74436,7 +74440,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -74615,7 +74619,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="3" t="s">
+      <c r="A416" s="5" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -74764,7 +74768,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -74916,7 +74920,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="3" t="s">
+      <c r="A418" s="5" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -75095,7 +75099,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="5" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -75274,7 +75278,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="5" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -75453,7 +75457,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="5" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -75632,7 +75636,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -75811,7 +75815,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -75966,7 +75970,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="3" t="s">
+      <c r="A424" s="5" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -76145,7 +76149,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -76318,7 +76322,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="3" t="s">
+      <c r="A426" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -76491,7 +76495,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="3" t="s">
+      <c r="A427" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -76670,7 +76674,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="3" t="s">
+      <c r="A428" s="5" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -76849,7 +76853,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="5" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -77028,7 +77032,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="3" t="s">
+      <c r="A430" s="5" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -77207,7 +77211,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="3" t="s">
+      <c r="A431" s="5" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -77386,7 +77390,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="3" t="s">
+      <c r="A432" s="5" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -77565,7 +77569,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="3" t="s">
+      <c r="A433" s="5" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -77744,7 +77748,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="5" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -77923,7 +77927,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="5" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -78102,7 +78106,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="3" t="s">
+      <c r="A436" s="5" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -78281,7 +78285,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="3" t="s">
+      <c r="A437" s="5" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -78460,7 +78464,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -78603,7 +78607,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -78779,7 +78783,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="3" t="s">
+      <c r="A440" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -78958,7 +78962,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="3" t="s">
+      <c r="A441" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -79137,7 +79141,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="3" t="s">
+      <c r="A442" s="5" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -79313,7 +79317,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -79489,7 +79493,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -79668,7 +79672,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="3" t="s">
+      <c r="A445" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -79847,7 +79851,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="3" t="s">
+      <c r="A446" s="5" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -80026,7 +80030,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="3" t="s">
+      <c r="A447" s="5" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -80202,7 +80206,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="3" t="s">
+      <c r="A448" s="5" t="s">
         <v>447</v>
       </c>
       <c r="B448">
@@ -80381,7 +80385,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="3" t="s">
+      <c r="A449" s="5" t="s">
         <v>448</v>
       </c>
       <c r="B449">
@@ -80560,7 +80564,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="3" t="s">
+      <c r="A450" s="5" t="s">
         <v>449</v>
       </c>
       <c r="B450">
@@ -80739,7 +80743,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="3" t="s">
+      <c r="A451" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B451">
@@ -80897,7 +80901,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="3" t="s">
+      <c r="A452" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B452">
@@ -81073,7 +81077,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="3" t="s">
+      <c r="A453" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B453">
@@ -81249,7 +81253,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="3" t="s">
+      <c r="A454" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B454">
@@ -81428,7 +81432,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="3" t="s">
+      <c r="A455" s="5" t="s">
         <v>454</v>
       </c>
       <c r="B455">
@@ -81607,7 +81611,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="3" t="s">
+      <c r="A456" s="5" t="s">
         <v>455</v>
       </c>
       <c r="B456">
@@ -81786,7 +81790,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="3" t="s">
+      <c r="A457" s="5" t="s">
         <v>456</v>
       </c>
       <c r="B457">
@@ -81965,7 +81969,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="3" t="s">
+      <c r="A458" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B458">
@@ -82141,7 +82145,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="3" t="s">
+      <c r="A459" s="5" t="s">
         <v>458</v>
       </c>
       <c r="B459">
@@ -82308,7 +82312,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="3" t="s">
+      <c r="A460" s="5" t="s">
         <v>459</v>
       </c>
       <c r="B460">
@@ -82484,7 +82488,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="3" t="s">
+      <c r="A461" s="5" t="s">
         <v>460</v>
       </c>
       <c r="B461">
@@ -82663,7 +82667,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="3" t="s">
+      <c r="A462" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B462">
@@ -82842,7 +82846,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="3" t="s">
+      <c r="A463" s="5" t="s">
         <v>462</v>
       </c>
       <c r="B463">
@@ -82988,7 +82992,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="3" t="s">
+      <c r="A464" s="5" t="s">
         <v>463</v>
       </c>
       <c r="B464">
@@ -83164,7 +83168,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="3" t="s">
+      <c r="A465" s="5" t="s">
         <v>464</v>
       </c>
       <c r="B465">
@@ -83343,7 +83347,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="3" t="s">
+      <c r="A466" s="5" t="s">
         <v>465</v>
       </c>
       <c r="B466">
@@ -83522,7 +83526,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="3" t="s">
+      <c r="A467" s="5" t="s">
         <v>466</v>
       </c>
       <c r="B467">
@@ -83701,7 +83705,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="3" t="s">
+      <c r="A468" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B468">
@@ -83880,7 +83884,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="3" t="s">
+      <c r="A469" s="5" t="s">
         <v>468</v>
       </c>
       <c r="B469">
@@ -84059,7 +84063,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="3" t="s">
+      <c r="A470" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B470">
@@ -84238,7 +84242,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="3" t="s">
+      <c r="A471" s="5" t="s">
         <v>470</v>
       </c>
       <c r="B471">
@@ -84405,7 +84409,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="3" t="s">
+      <c r="A472" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B472">
@@ -84584,7 +84588,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="3" t="s">
+      <c r="A473" s="5" t="s">
         <v>472</v>
       </c>
       <c r="B473">
@@ -84760,7 +84764,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="3" t="s">
+      <c r="A474" s="5" t="s">
         <v>473</v>
       </c>
       <c r="B474">
@@ -84936,7 +84940,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="3" t="s">
+      <c r="A475" s="5" t="s">
         <v>474</v>
       </c>
       <c r="B475">
@@ -85106,7 +85110,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="3" t="s">
+      <c r="A476" s="5" t="s">
         <v>475</v>
       </c>
       <c r="B476">
@@ -85285,7 +85289,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="3" t="s">
+      <c r="A477" s="5" t="s">
         <v>476</v>
       </c>
       <c r="B477">
@@ -85461,7 +85465,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="3" t="s">
+      <c r="A478" s="5" t="s">
         <v>477</v>
       </c>
       <c r="B478">
@@ -85640,7 +85644,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="3" t="s">
+      <c r="A479" s="5" t="s">
         <v>478</v>
       </c>
       <c r="B479">
@@ -85813,7 +85817,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="3" t="s">
+      <c r="A480" s="5" t="s">
         <v>479</v>
       </c>
       <c r="B480">
@@ -85992,7 +85996,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="3" t="s">
+      <c r="A481" s="5" t="s">
         <v>480</v>
       </c>
       <c r="B481">
@@ -86171,7 +86175,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="3" t="s">
+      <c r="A482" s="5" t="s">
         <v>481</v>
       </c>
       <c r="B482">
@@ -86350,7 +86354,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="3" t="s">
+      <c r="A483" s="5" t="s">
         <v>482</v>
       </c>
       <c r="B483">
@@ -86517,7 +86521,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="3" t="s">
+      <c r="A484" s="5" t="s">
         <v>483</v>
       </c>
       <c r="B484">
@@ -86696,7 +86700,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="3" t="s">
+      <c r="A485" s="5" t="s">
         <v>484</v>
       </c>
       <c r="B485">
@@ -86869,7 +86873,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="3" t="s">
+      <c r="A486" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B486">
@@ -87045,7 +87049,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="3" t="s">
+      <c r="A487" s="5" t="s">
         <v>486</v>
       </c>
       <c r="B487">
@@ -87224,7 +87228,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="3" t="s">
+      <c r="A488" s="5" t="s">
         <v>487</v>
       </c>
       <c r="B488">
@@ -87403,7 +87407,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="3" t="s">
+      <c r="A489" s="5" t="s">
         <v>488</v>
       </c>
       <c r="B489">
@@ -87582,7 +87586,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="3" t="s">
+      <c r="A490" s="5" t="s">
         <v>489</v>
       </c>
       <c r="B490">
@@ -87749,7 +87753,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="3" t="s">
+      <c r="A491" s="5" t="s">
         <v>490</v>
       </c>
       <c r="B491">
@@ -87925,7 +87929,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="3" t="s">
+      <c r="A492" s="5" t="s">
         <v>491</v>
       </c>
       <c r="B492">
@@ -88104,7 +88108,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="3" t="s">
+      <c r="A493" s="5" t="s">
         <v>492</v>
       </c>
       <c r="B493">
@@ -88280,7 +88284,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="3" t="s">
+      <c r="A494" s="5" t="s">
         <v>493</v>
       </c>
       <c r="B494">
@@ -88459,7 +88463,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="3" t="s">
+      <c r="A495" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B495">
@@ -88635,7 +88639,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="3" t="s">
+      <c r="A496" s="5" t="s">
         <v>495</v>
       </c>
       <c r="B496">
@@ -88811,7 +88815,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="3" t="s">
+      <c r="A497" s="5" t="s">
         <v>496</v>
       </c>
       <c r="B497">
@@ -88987,7 +88991,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="3" t="s">
+      <c r="A498" s="5" t="s">
         <v>497</v>
       </c>
       <c r="B498">
@@ -89133,7 +89137,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="3" t="s">
+      <c r="A499" s="5" t="s">
         <v>498</v>
       </c>
       <c r="B499">
@@ -89312,7 +89316,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="3" t="s">
+      <c r="A500" s="5" t="s">
         <v>499</v>
       </c>
       <c r="B500">
@@ -89488,7 +89492,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="3" t="s">
+      <c r="A501" s="5" t="s">
         <v>500</v>
       </c>
       <c r="B501">
@@ -89667,7 +89671,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="3" t="s">
+      <c r="A502" s="5" t="s">
         <v>501</v>
       </c>
       <c r="B502">
@@ -89846,7 +89850,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="3" t="s">
+      <c r="A503" s="5" t="s">
         <v>502</v>
       </c>
       <c r="B503">
@@ -90022,7 +90026,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="3" t="s">
+      <c r="A504" s="5" t="s">
         <v>503</v>
       </c>
       <c r="B504">
@@ -90192,7 +90196,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="3" t="s">
+      <c r="A505" s="5" t="s">
         <v>504</v>
       </c>
       <c r="B505">
@@ -90365,7 +90369,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="3" t="s">
+      <c r="A506" s="5" t="s">
         <v>505</v>
       </c>
       <c r="B506">
@@ -90544,7 +90548,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="3" t="s">
+      <c r="A507" s="5" t="s">
         <v>506</v>
       </c>
       <c r="B507">
@@ -90690,7 +90694,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="3" t="s">
+      <c r="A508" s="5" t="s">
         <v>507</v>
       </c>
       <c r="B508">
@@ -90860,7 +90864,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="3" t="s">
+      <c r="A509" s="5" t="s">
         <v>508</v>
       </c>
       <c r="B509">
@@ -91009,7 +91013,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="3" t="s">
+      <c r="A510" s="5" t="s">
         <v>509</v>
       </c>
       <c r="B510">
@@ -91188,7 +91192,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="3" t="s">
+      <c r="A511" s="5" t="s">
         <v>510</v>
       </c>
       <c r="B511">
@@ -91364,7 +91368,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="3" t="s">
+      <c r="A512" s="5" t="s">
         <v>511</v>
       </c>
       <c r="B512">
@@ -91543,7 +91547,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="3" t="s">
+      <c r="A513" s="5" t="s">
         <v>512</v>
       </c>
       <c r="B513">
@@ -91683,7 +91687,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="3" t="s">
+      <c r="A514" s="5" t="s">
         <v>513</v>
       </c>
       <c r="B514">
@@ -91853,7 +91857,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="3" t="s">
+      <c r="A515" s="5" t="s">
         <v>514</v>
       </c>
       <c r="B515">
@@ -92032,7 +92036,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="3" t="s">
+      <c r="A516" s="5" t="s">
         <v>515</v>
       </c>
       <c r="B516">
@@ -92211,7 +92215,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="3" t="s">
+      <c r="A517" s="5" t="s">
         <v>516</v>
       </c>
       <c r="B517">
@@ -92390,7 +92394,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="3" t="s">
+      <c r="A518" s="5" t="s">
         <v>517</v>
       </c>
       <c r="D518">
@@ -92470,7 +92474,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="3" t="s">
+      <c r="A519" s="5" t="s">
         <v>518</v>
       </c>
       <c r="B519">
@@ -92640,7 +92644,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="3" t="s">
+      <c r="A520" s="5" t="s">
         <v>519</v>
       </c>
       <c r="B520">
@@ -92819,7 +92823,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="3" t="s">
+      <c r="A521" s="5" t="s">
         <v>520</v>
       </c>
       <c r="B521">
@@ -92998,7 +93002,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="3" t="s">
+      <c r="A522" s="5" t="s">
         <v>521</v>
       </c>
       <c r="B522">
@@ -93177,7 +93181,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="3" t="s">
+      <c r="A523" s="5" t="s">
         <v>522</v>
       </c>
       <c r="B523">
@@ -93356,7 +93360,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="3" t="s">
+      <c r="A524" s="5" t="s">
         <v>523</v>
       </c>
       <c r="B524">
@@ -93535,7 +93539,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="3" t="s">
+      <c r="A525" s="5" t="s">
         <v>524</v>
       </c>
       <c r="B525">
@@ -93705,7 +93709,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="3" t="s">
+      <c r="A526" s="5" t="s">
         <v>525</v>
       </c>
       <c r="B526">
@@ -93884,7 +93888,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="3" t="s">
+      <c r="A527" s="5" t="s">
         <v>526</v>
       </c>
       <c r="B527">
@@ -94027,7 +94031,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="3" t="s">
+      <c r="A528" s="5" t="s">
         <v>527</v>
       </c>
       <c r="B528">
@@ -94206,7 +94210,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="3" t="s">
+      <c r="A529" s="5" t="s">
         <v>528</v>
       </c>
       <c r="B529">
@@ -94385,7 +94389,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="3" t="s">
+      <c r="A530" s="5" t="s">
         <v>529</v>
       </c>
       <c r="B530">
@@ -94564,7 +94568,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="3" t="s">
+      <c r="A531" s="5" t="s">
         <v>530</v>
       </c>
       <c r="B531">
@@ -94743,7 +94747,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="3" t="s">
+      <c r="A532" s="5" t="s">
         <v>531</v>
       </c>
       <c r="B532">
@@ -94910,7 +94914,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="3" t="s">
+      <c r="A533" s="5" t="s">
         <v>532</v>
       </c>
       <c r="B533">
@@ -95074,7 +95078,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="3" t="s">
+      <c r="A534" s="5" t="s">
         <v>533</v>
       </c>
       <c r="B534">
@@ -95253,7 +95257,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="3" t="s">
+      <c r="A535" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B535">
@@ -95432,7 +95436,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="3" t="s">
+      <c r="A536" s="5" t="s">
         <v>535</v>
       </c>
       <c r="B536">
@@ -95611,7 +95615,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="3" t="s">
+      <c r="A537" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B537">
@@ -95763,7 +95767,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="3" t="s">
+      <c r="A538" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B538">
@@ -95942,7 +95946,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="3" t="s">
+      <c r="A539" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B539">
@@ -96109,7 +96113,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="3" t="s">
+      <c r="A540" s="5" t="s">
         <v>539</v>
       </c>
       <c r="B540">
@@ -96288,7 +96292,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="3" t="s">
+      <c r="A541" s="5" t="s">
         <v>540</v>
       </c>
       <c r="B541">
@@ -96467,7 +96471,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="3" t="s">
+      <c r="A542" s="5" t="s">
         <v>541</v>
       </c>
       <c r="B542">
@@ -96646,7 +96650,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="3" t="s">
+      <c r="A543" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B543">
@@ -96798,7 +96802,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="3" t="s">
+      <c r="A544" s="5" t="s">
         <v>543</v>
       </c>
       <c r="B544">
@@ -96977,7 +96981,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="3" t="s">
+      <c r="A545" s="5" t="s">
         <v>544</v>
       </c>
       <c r="B545">
@@ -97156,7 +97160,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="3" t="s">
+      <c r="A546" s="5" t="s">
         <v>545</v>
       </c>
       <c r="B546">
@@ -97335,7 +97339,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="3" t="s">
+      <c r="A547" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B547">
@@ -97511,7 +97515,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="3" t="s">
+      <c r="A548" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B548">
@@ -97690,7 +97694,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="3" t="s">
+      <c r="A549" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B549">
@@ -97863,7 +97867,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="3" t="s">
+      <c r="A550" s="5" t="s">
         <v>549</v>
       </c>
       <c r="B550">
@@ -98030,7 +98034,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="3" t="s">
+      <c r="A551" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B551">
@@ -98209,7 +98213,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="3" t="s">
+      <c r="A552" s="5" t="s">
         <v>551</v>
       </c>
       <c r="B552">
@@ -98388,7 +98392,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="3" t="s">
+      <c r="A553" s="5" t="s">
         <v>552</v>
       </c>
       <c r="B553">
@@ -98549,7 +98553,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="3" t="s">
+      <c r="A554" s="5" t="s">
         <v>553</v>
       </c>
       <c r="B554">
@@ -98710,7 +98714,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="3" t="s">
+      <c r="A555" s="5" t="s">
         <v>554</v>
       </c>
       <c r="B555">
@@ -98889,7 +98893,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="3" t="s">
+      <c r="A556" s="5" t="s">
         <v>555</v>
       </c>
       <c r="B556">
@@ -99044,7 +99048,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="3" t="s">
+      <c r="A557" s="5" t="s">
         <v>556</v>
       </c>
       <c r="B557">
@@ -99223,7 +99227,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="3" t="s">
+      <c r="A558" s="5" t="s">
         <v>557</v>
       </c>
       <c r="B558">
@@ -99402,7 +99406,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="3" t="s">
+      <c r="A559" s="5" t="s">
         <v>558</v>
       </c>
       <c r="B559">
@@ -99554,7 +99558,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="3" t="s">
+      <c r="A560" s="5" t="s">
         <v>559</v>
       </c>
       <c r="B560">
@@ -99721,7 +99725,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="3" t="s">
+      <c r="A561" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B561">
@@ -99900,7 +99904,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="3" t="s">
+      <c r="A562" s="5" t="s">
         <v>561</v>
       </c>
       <c r="B562">
@@ -100055,7 +100059,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="3" t="s">
+      <c r="A563" s="5" t="s">
         <v>562</v>
       </c>
       <c r="B563">
@@ -100228,7 +100232,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="3" t="s">
+      <c r="A564" s="5" t="s">
         <v>563</v>
       </c>
       <c r="B564">
@@ -100398,7 +100402,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="3" t="s">
+      <c r="A565" s="5" t="s">
         <v>564</v>
       </c>
       <c r="B565">
@@ -100577,7 +100581,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="3" t="s">
+      <c r="A566" s="5" t="s">
         <v>565</v>
       </c>
       <c r="B566">
@@ -100756,7 +100760,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="3" t="s">
+      <c r="A567" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B567">
@@ -100935,7 +100939,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="3" t="s">
+      <c r="A568" s="5" t="s">
         <v>567</v>
       </c>
       <c r="B568">
@@ -101081,7 +101085,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="3" t="s">
+      <c r="A569" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B569">
@@ -101260,7 +101264,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="3" t="s">
+      <c r="A570" s="5" t="s">
         <v>569</v>
       </c>
       <c r="B570">
@@ -101439,7 +101443,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="3" t="s">
+      <c r="A571" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B571">
@@ -101588,7 +101592,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="3" t="s">
+      <c r="A572" s="5" t="s">
         <v>571</v>
       </c>
       <c r="B572">
@@ -101755,7 +101759,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="3" t="s">
+      <c r="A573" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B573">
@@ -101934,7 +101938,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="3" t="s">
+      <c r="A574" s="5" t="s">
         <v>573</v>
       </c>
       <c r="B574">
@@ -102092,7 +102096,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="3" t="s">
+      <c r="A575" s="5" t="s">
         <v>574</v>
       </c>
       <c r="B575">
@@ -102271,7 +102275,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="3" t="s">
+      <c r="A576" s="5" t="s">
         <v>575</v>
       </c>
       <c r="B576">
@@ -102450,7 +102454,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="3" t="s">
+      <c r="A577" s="5" t="s">
         <v>576</v>
       </c>
       <c r="B577">
@@ -102629,7 +102633,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="3" t="s">
+      <c r="A578" s="5" t="s">
         <v>577</v>
       </c>
       <c r="B578">
@@ -102808,7 +102812,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="3" t="s">
+      <c r="A579" s="5" t="s">
         <v>578</v>
       </c>
       <c r="B579">
@@ -102987,7 +102991,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="3" t="s">
+      <c r="A580" s="5" t="s">
         <v>579</v>
       </c>
       <c r="B580">
@@ -103166,7 +103170,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="3" t="s">
+      <c r="A581" s="5" t="s">
         <v>580</v>
       </c>
       <c r="B581">
@@ -103345,7 +103349,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="3" t="s">
+      <c r="A582" s="5" t="s">
         <v>581</v>
       </c>
       <c r="B582">
@@ -103524,7 +103528,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="3" t="s">
+      <c r="A583" s="5" t="s">
         <v>582</v>
       </c>
       <c r="B583">
@@ -103703,7 +103707,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="3" t="s">
+      <c r="A584" s="5" t="s">
         <v>583</v>
       </c>
       <c r="B584">
@@ -103870,7 +103874,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="3" t="s">
+      <c r="A585" s="5" t="s">
         <v>584</v>
       </c>
       <c r="B585">
@@ -104043,7 +104047,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="3" t="s">
+      <c r="A586" s="5" t="s">
         <v>585</v>
       </c>
       <c r="B586">
@@ -104222,7 +104226,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="3" t="s">
+      <c r="A587" s="5" t="s">
         <v>586</v>
       </c>
       <c r="B587">
@@ -104401,7 +104405,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="3" t="s">
+      <c r="A588" s="5" t="s">
         <v>587</v>
       </c>
       <c r="B588">
@@ -104580,7 +104584,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="3" t="s">
+      <c r="A589" s="5" t="s">
         <v>588</v>
       </c>
       <c r="B589">
@@ -104759,7 +104763,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="3" t="s">
+      <c r="A590" s="5" t="s">
         <v>589</v>
       </c>
       <c r="B590">
@@ -104938,7 +104942,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="3" t="s">
+      <c r="A591" s="5" t="s">
         <v>590</v>
       </c>
       <c r="B591">
@@ -105117,7 +105121,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="3" t="s">
+      <c r="A592" s="5" t="s">
         <v>591</v>
       </c>
       <c r="B592">
@@ -105296,7 +105300,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="3" t="s">
+      <c r="A593" s="5" t="s">
         <v>592</v>
       </c>
       <c r="B593">
@@ -105460,7 +105464,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="3" t="s">
+      <c r="A594" s="5" t="s">
         <v>593</v>
       </c>
       <c r="B594">
@@ -105633,7 +105637,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="3" t="s">
+      <c r="A595" s="5" t="s">
         <v>594</v>
       </c>
       <c r="B595">
@@ -105677,7 +105681,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="3" t="s">
+      <c r="A596" s="5" t="s">
         <v>595</v>
       </c>
       <c r="B596">
@@ -105856,7 +105860,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="3" t="s">
+      <c r="A597" s="5" t="s">
         <v>596</v>
       </c>
       <c r="B597">
@@ -106023,7 +106027,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="3" t="s">
+      <c r="A598" s="5" t="s">
         <v>597</v>
       </c>
       <c r="B598">
@@ -106202,7 +106206,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="3" t="s">
+      <c r="A599" s="5" t="s">
         <v>598</v>
       </c>
       <c r="B599">
@@ -106378,7 +106382,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="3" t="s">
+      <c r="A600" s="5" t="s">
         <v>599</v>
       </c>
       <c r="B600">
@@ -106554,7 +106558,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="3" t="s">
+      <c r="A601" s="5" t="s">
         <v>600</v>
       </c>
       <c r="B601">
